--- a/data/trans_orig/P37C3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Edad-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10235</v>
+        <v>7616</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.003692232706145952</v>
+        <v>0.003692232706145953</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02550036740444989</v>
+        <v>0.01897530944265467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12027</v>
+        <v>11505</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009194388838641673</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03317630317605207</v>
+        <v>0.0317370035637717</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>4815</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1475</v>
+        <v>1489</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13324</v>
+        <v>14383</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006303354993605063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001931243942351086</v>
+        <v>0.001949283009838015</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01744282159273711</v>
+        <v>0.01882829256017838</v>
       </c>
     </row>
     <row r="5">
@@ -815,16 +815,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8152</v>
+        <v>9002</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.00432932654652337</v>
+        <v>0.004329326546523371</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02030907608740844</v>
+        <v>0.0224277192171869</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7618</v>
+        <v>7815</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003912799430411048</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02101370583188121</v>
+        <v>0.02155699789823642</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11357</v>
+        <v>12103</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.004131657994410032</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01486758347760936</v>
+        <v>0.01584434476180212</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>26428</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12742</v>
+        <v>12822</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47047</v>
+        <v>46564</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06584455112958192</v>
+        <v>0.06584455112958193</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03174551886622583</v>
+        <v>0.03194450371577217</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.117216016144</v>
+        <v>0.1160109414980813</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -904,19 +904,19 @@
         <v>26889</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14429</v>
+        <v>14553</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44126</v>
+        <v>44264</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.0741730060600341</v>
+        <v>0.07417300606003409</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03980405424128478</v>
+        <v>0.04014529822879348</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1217220301024867</v>
+        <v>0.1221024502480943</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -925,19 +925,19 @@
         <v>53317</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>36096</v>
+        <v>34854</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79775</v>
+        <v>78129</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06979693157196286</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04725256861540658</v>
+        <v>0.04562675918801104</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1044335519378437</v>
+        <v>0.1022782528737013</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>112582</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>86351</v>
+        <v>85622</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143426</v>
+        <v>141542</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2804918684315145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2151399568575059</v>
+        <v>0.2133223803285452</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3573388244244526</v>
+        <v>0.3526450564095865</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -975,19 +975,19 @@
         <v>68638</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51864</v>
+        <v>50059</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89279</v>
+        <v>90128</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1893391341514222</v>
+        <v>0.1893391341514221</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1430681119950275</v>
+        <v>0.1380890778855032</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2462795116469426</v>
+        <v>0.2486197553586638</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -996,19 +996,19 @@
         <v>181220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>147990</v>
+        <v>148560</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>215430</v>
+        <v>215622</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2372341108706384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1937333573848191</v>
+        <v>0.1944798665112021</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2820182073566367</v>
+        <v>0.282269563017998</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>259143</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>229266</v>
+        <v>229617</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>289451</v>
+        <v>288341</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6456420211862341</v>
+        <v>0.6456420211862343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5712040142166741</v>
+        <v>0.5720789550579127</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7211509914552955</v>
+        <v>0.7183859770521159</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>147</v>
@@ -1046,19 +1046,19 @@
         <v>262234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>236417</v>
+        <v>235999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>282834</v>
+        <v>283559</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7233806715194909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6521637950360916</v>
+        <v>0.6510088177255198</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7802045368309257</v>
+        <v>0.7822052675496983</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>253</v>
@@ -1067,19 +1067,19 @@
         <v>521378</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>479623</v>
+        <v>480252</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>557930</v>
+        <v>556860</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6825339445693835</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6278719499054174</v>
+        <v>0.6286956442489361</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7303836289284161</v>
+        <v>0.7289825540786958</v>
       </c>
     </row>
     <row r="9">
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4831</v>
+        <v>6456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002496625676771702</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01019519980461532</v>
+        <v>0.01362432770694655</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9060</v>
+        <v>9851</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003593379243791852</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0181454049530068</v>
+        <v>0.01972830136594774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9682</v>
+        <v>10512</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003059334794874667</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009948197691463552</v>
+        <v>0.01080132310007786</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>8727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3526</v>
+        <v>3614</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19281</v>
+        <v>18815</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01841556651738707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007439890901809769</v>
+        <v>0.007625638419534073</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04068741180415895</v>
+        <v>0.03970437966076011</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1263,19 +1263,19 @@
         <v>3967</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1191</v>
+        <v>976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10324</v>
+        <v>9856</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007943907397585834</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002384691900065198</v>
+        <v>0.001955538534437575</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02067671068649739</v>
+        <v>0.0197398264214084</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1284,19 +1284,19 @@
         <v>12693</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5648</v>
+        <v>6230</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23047</v>
+        <v>24640</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01304289370777134</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005803117883158442</v>
+        <v>0.006401611260776635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0236814245109848</v>
+        <v>0.02531809254549319</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>33941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21404</v>
+        <v>22321</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50483</v>
+        <v>50450</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07162285801896255</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04516674824834663</v>
+        <v>0.04710245395517032</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1065294349455504</v>
+        <v>0.106460071776056</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1334,19 +1334,19 @@
         <v>19960</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12583</v>
+        <v>11137</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30198</v>
+        <v>30229</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03997407551756129</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02519962243199001</v>
+        <v>0.02230439801103104</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06047884901614346</v>
+        <v>0.0605395341773089</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -1355,19 +1355,19 @@
         <v>53901</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39799</v>
+        <v>39734</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73326</v>
+        <v>75298</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05538488166226577</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04089459337336128</v>
+        <v>0.04082753838029123</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07534440926065589</v>
+        <v>0.07737078373146228</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>116522</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94934</v>
+        <v>92873</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142261</v>
+        <v>140599</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2458867029575312</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2003316729416307</v>
+        <v>0.1959812298952389</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3002023367848495</v>
+        <v>0.2966950221139513</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -1405,19 +1405,19 @@
         <v>96516</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79723</v>
+        <v>79632</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116068</v>
+        <v>115360</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1932940381791897</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1596631757848243</v>
+        <v>0.1594810598170932</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2324518111436284</v>
+        <v>0.2310345925391094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>169</v>
@@ -1426,19 +1426,19 @@
         <v>213038</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>182970</v>
+        <v>184642</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>243422</v>
+        <v>242043</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2189030915921152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1880074576645586</v>
+        <v>0.1897254624953215</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2501242034265329</v>
+        <v>0.2487066179059787</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>313512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>284714</v>
+        <v>287554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>337125</v>
+        <v>339398</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6615782468293476</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6008077139663704</v>
+        <v>0.6068021552848523</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7114060216428943</v>
+        <v>0.7162022720037037</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>342</v>
@@ -1476,19 +1476,19 @@
         <v>377084</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>355723</v>
+        <v>357034</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>397311</v>
+        <v>395896</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7551945996618712</v>
+        <v>0.7551945996618713</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7124141112445395</v>
+        <v>0.7150397823047996</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7957032825414563</v>
+        <v>0.7928704502020955</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>536</v>
@@ -1497,19 +1497,19 @@
         <v>690596</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>657476</v>
+        <v>657018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>724221</v>
+        <v>723543</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.709609798242973</v>
+        <v>0.7096097982429729</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6755778705117206</v>
+        <v>0.6751071095013197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7441605242519945</v>
+        <v>0.7434638900828175</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>3763</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10625</v>
+        <v>10357</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006119892218350562</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001350214869056143</v>
+        <v>0.001345525071805647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01727832562860418</v>
+        <v>0.01684323735797094</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1625,16 +1625,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4349</v>
+        <v>3827</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.001222855389466966</v>
+        <v>0.001222855389466967</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007017282995748173</v>
+        <v>0.006175108540232574</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1643,19 +1643,19 @@
         <v>4521</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11753</v>
+        <v>10755</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.003661654014233205</v>
+        <v>0.003661654014233204</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001156300007169686</v>
+        <v>0.001160398507064665</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.009518681899764741</v>
+        <v>0.008710076319444425</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>7689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3486</v>
+        <v>3718</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15345</v>
+        <v>15075</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01250448400001031</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005668355754219452</v>
+        <v>0.006045466620487955</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02495506859892159</v>
+        <v>0.02451516412066824</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1693,19 +1693,19 @@
         <v>3842</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1440</v>
+        <v>1429</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8505</v>
+        <v>8451</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.006197997168425872</v>
+        <v>0.006197997168425874</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.002322689677200335</v>
+        <v>0.002305343750563414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01372202934384232</v>
+        <v>0.01363405651078046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -1714,19 +1714,19 @@
         <v>11531</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6408</v>
+        <v>6651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19285</v>
+        <v>19595</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009338723274723267</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005189482011712446</v>
+        <v>0.00538665795347235</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01561835333169802</v>
+        <v>0.01586947813293979</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>41504</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28680</v>
+        <v>29658</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56698</v>
+        <v>56730</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06749397286659245</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04663930988970359</v>
+        <v>0.04823054409166098</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09220315557775599</v>
+        <v>0.09225460117911373</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -1764,19 +1764,19 @@
         <v>13918</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8731</v>
+        <v>8875</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21588</v>
+        <v>22184</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02245474166049134</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01408625730140384</v>
+        <v>0.0143189524396474</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03482965170237171</v>
+        <v>0.0357899893095677</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>52</v>
@@ -1785,19 +1785,19 @@
         <v>55422</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>41499</v>
+        <v>41068</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73180</v>
+        <v>72206</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04488496200886663</v>
+        <v>0.04488496200886662</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03360957466771426</v>
+        <v>0.03326019004855327</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05926727737582421</v>
+        <v>0.05847798940733184</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>138281</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>117692</v>
+        <v>118722</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>162191</v>
+        <v>161020</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2248739679797369</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1913920053645858</v>
+        <v>0.1930677004403363</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2637571028192185</v>
+        <v>0.2618538077620293</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>185</v>
@@ -1835,19 +1835,19 @@
         <v>127303</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>109422</v>
+        <v>111266</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>143802</v>
+        <v>145761</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2053842805452782</v>
+        <v>0.2053842805452783</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.176536966624997</v>
+        <v>0.1795111508911412</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2320035301679507</v>
+        <v>0.2351648205243016</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>313</v>
@@ -1856,19 +1856,19 @@
         <v>265583</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>238090</v>
+        <v>234572</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>293598</v>
+        <v>292235</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2150904405300129</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.192824491662818</v>
+        <v>0.189974905142183</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2377794851584055</v>
+        <v>0.2366749382190007</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>423688</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>400026</v>
+        <v>397090</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>449177</v>
+        <v>446100</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6890076829353099</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6505285435117415</v>
+        <v>0.6457533006262844</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7304584038555985</v>
+        <v>0.7254543844774396</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>634</v>
@@ -1906,19 +1906,19 @@
         <v>474006</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>457225</v>
+        <v>454166</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>492899</v>
+        <v>491029</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7647401252363374</v>
+        <v>0.7647401252363376</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7376661480868136</v>
+        <v>0.7327306712315789</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7952215090912882</v>
+        <v>0.7922039500092209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1003</v>
@@ -1927,19 +1927,19 @@
         <v>897694</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>866872</v>
+        <v>867705</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>926793</v>
+        <v>933164</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7270242201721639</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7020624546339964</v>
+        <v>0.7027365891421574</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7505913375865466</v>
+        <v>0.7557507365323179</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5752</v>
+        <v>5329</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002369309296662193</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.008295595583217819</v>
+        <v>0.007685260468140388</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2052,19 +2052,19 @@
         <v>2508</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>614</v>
+        <v>990</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6256</v>
+        <v>6274</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00342467398837169</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0008388668555398506</v>
+        <v>0.00135151980530886</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008541175714985695</v>
+        <v>0.008566129617747026</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2073,19 +2073,19 @@
         <v>4151</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1538</v>
+        <v>1575</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9079</v>
+        <v>8734</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002911437932883001</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001079007113734469</v>
+        <v>0.001104842884334592</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.006367908252343748</v>
+        <v>0.006126009876563697</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>7950</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3767</v>
+        <v>3376</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15767</v>
+        <v>15567</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01146600426894198</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005433269535400921</v>
+        <v>0.004869165804418858</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02273998479441204</v>
+        <v>0.02245185822308654</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2123,19 +2123,19 @@
         <v>3746</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1325</v>
+        <v>1340</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7830</v>
+        <v>7728</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005114289092373814</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001808557191539204</v>
+        <v>0.001829499795881518</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01069144665772442</v>
+        <v>0.01055184190476298</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -2144,19 +2144,19 @@
         <v>11696</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6478</v>
+        <v>6179</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19954</v>
+        <v>18978</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.008203201644042573</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004543194062454429</v>
+        <v>0.004333667937363977</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01399551216807437</v>
+        <v>0.01331088197684848</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>28425</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19141</v>
+        <v>18602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42286</v>
+        <v>41386</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04099550558443665</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02760625008718819</v>
+        <v>0.02682902171407345</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06098606285093551</v>
+        <v>0.05968874864800935</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -2194,19 +2194,19 @@
         <v>32291</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24055</v>
+        <v>23965</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41876</v>
+        <v>42091</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04408930839438693</v>
+        <v>0.04408930839438691</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03284439207601144</v>
+        <v>0.03272156276521329</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0571771205823844</v>
+        <v>0.05747029727624738</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>73</v>
@@ -2215,19 +2215,19 @@
         <v>60716</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47634</v>
+        <v>48313</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>76538</v>
+        <v>76745</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04258475630626782</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03340933323849043</v>
+        <v>0.03388568015723353</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05368201503150127</v>
+        <v>0.05382745713477746</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>164639</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>143791</v>
+        <v>145792</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>188784</v>
+        <v>192239</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2374489169251525</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.207380891130561</v>
+        <v>0.2102680008665018</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2722720828037951</v>
+        <v>0.2772544171841939</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>255</v>
@@ -2265,19 +2265,19 @@
         <v>156788</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>139311</v>
+        <v>140845</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>172757</v>
+        <v>174584</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2140753993627401</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1902127493576022</v>
+        <v>0.192306487175332</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2358782898001649</v>
+        <v>0.2383726539540425</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>417</v>
@@ -2286,19 +2286,19 @@
         <v>321427</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>292456</v>
+        <v>292605</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>351329</v>
+        <v>350709</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2254422112817523</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2051227419279715</v>
+        <v>0.2052270744473619</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2464148141093429</v>
+        <v>0.2459798157029955</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>490708</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>465691</v>
+        <v>463783</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>514096</v>
+        <v>512640</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7077202639248068</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6716383241820194</v>
+        <v>0.6688876026806206</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7414508121314899</v>
+        <v>0.7393505286190843</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>822</v>
@@ -2336,19 +2336,19 @@
         <v>537065</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>518949</v>
+        <v>516264</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>557171</v>
+        <v>555134</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7332963291621275</v>
+        <v>0.7332963291621274</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7085619461057296</v>
+        <v>0.7048960470523535</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7607488090912189</v>
+        <v>0.7579681439807415</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1284</v>
@@ -2357,19 +2357,19 @@
         <v>1027773</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>997342</v>
+        <v>995581</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1059089</v>
+        <v>1056703</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7208583928350545</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6995153408685749</v>
+        <v>0.6982802345073876</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7428228320100196</v>
+        <v>0.7411499154817279</v>
       </c>
     </row>
     <row r="27">
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5229</v>
+        <v>6265</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001726277074198869</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.008663329551047433</v>
+        <v>0.01037985903413226</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>4898</v>
+        <v>4462</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002306004591609831</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.008095667195931935</v>
+        <v>0.007373802349660826</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3</v>
@@ -2503,19 +2503,19 @@
         <v>2437</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7291</v>
+        <v>6945</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.002016500821580093</v>
+        <v>0.002016500821580094</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.000570252741177193</v>
+        <v>0.0005667860380922159</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006032217223407734</v>
+        <v>0.005745928234792892</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>7167</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3233</v>
+        <v>3541</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13256</v>
+        <v>13218</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01187502399817258</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.005356996553044577</v>
+        <v>0.005867686997275199</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02196231475272063</v>
+        <v>0.02189993617080757</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -2553,19 +2553,19 @@
         <v>4564</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1995</v>
+        <v>1821</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8942</v>
+        <v>8991</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007542433350901826</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003296702638472353</v>
+        <v>0.00301007241754427</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01477841258541868</v>
+        <v>0.01485959333839838</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -2574,19 +2574,19 @@
         <v>11731</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6945</v>
+        <v>6830</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19045</v>
+        <v>18126</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.009706038301003417</v>
+        <v>0.009706038301003419</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005745859567734492</v>
+        <v>0.005651038469933995</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01575792169477615</v>
+        <v>0.01499691423000716</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>39186</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27971</v>
+        <v>29243</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>53569</v>
+        <v>53131</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06492497436405523</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04634434236442757</v>
+        <v>0.04845097195938624</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08875561498985886</v>
+        <v>0.08803023328618351</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -2624,19 +2624,19 @@
         <v>22324</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16827</v>
+        <v>15875</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31286</v>
+        <v>30574</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03689562530373065</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02780975802643613</v>
+        <v>0.0262369189640392</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05170787220285952</v>
+        <v>0.05053122842129866</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>76</v>
@@ -2645,19 +2645,19 @@
         <v>61510</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>48211</v>
+        <v>49135</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>76946</v>
+        <v>76294</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.05089289467725099</v>
+        <v>0.05089289467725101</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03988900851906624</v>
+        <v>0.04065380534787792</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06366468406973173</v>
+        <v>0.0631247564490186</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>136982</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>118200</v>
+        <v>118246</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>157174</v>
+        <v>157393</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2269574641884061</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1958382551966927</v>
+        <v>0.1959156781136249</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2604115958368823</v>
+        <v>0.2607759539859276</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>236</v>
@@ -2695,19 +2695,19 @@
         <v>135337</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>119823</v>
+        <v>120890</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>151474</v>
+        <v>151913</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2236761795537732</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.198035718249342</v>
+        <v>0.1997982635884595</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2503458675787568</v>
+        <v>0.2510707527909396</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>388</v>
@@ -2716,19 +2716,19 @@
         <v>272320</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>248899</v>
+        <v>248089</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>299884</v>
+        <v>297996</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2253147843184897</v>
+        <v>0.2253147843184898</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2059369183128239</v>
+        <v>0.2052667809425734</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2481211241779199</v>
+        <v>0.2465595496346841</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>419181</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>395315</v>
+        <v>396237</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>440382</v>
+        <v>438602</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6945162603751671</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6549744677992946</v>
+        <v>0.6565016452320998</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7296427015632962</v>
+        <v>0.7266944876782916</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>715</v>
@@ -2766,19 +2766,19 @@
         <v>441439</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>423415</v>
+        <v>424595</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>457887</v>
+        <v>458273</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7295797571999846</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.699791788193395</v>
+        <v>0.7017418251881979</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7567635367429808</v>
+        <v>0.7574021153787949</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1171</v>
@@ -2787,19 +2787,19 @@
         <v>860620</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>829729</v>
+        <v>832929</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>886139</v>
+        <v>887120</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7120697818816757</v>
+        <v>0.7120697818816759</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6865102562625477</v>
+        <v>0.6891580418213931</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.733184014456067</v>
+        <v>0.7339950568112984</v>
       </c>
     </row>
     <row r="33">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3398</v>
+        <v>3332</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001650290530505552</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.008398037471775177</v>
+        <v>0.008236056406127719</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1962</v>
+        <v>2760</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0009943786348715819</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.004523372249042618</v>
+        <v>0.006363437947429134</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3454</v>
+        <v>3980</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001310937648738077</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.004120656366090652</v>
+        <v>0.00474734925246252</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>5001</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2189</v>
+        <v>2114</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10544</v>
+        <v>9548</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01236032207665287</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.005409727117318843</v>
+        <v>0.005224558927494794</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02606006499237568</v>
+        <v>0.02359875256112501</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2983,19 +2983,19 @@
         <v>2792</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1085</v>
+        <v>939</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>6245</v>
+        <v>5946</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.006437463064202352</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002500706034422811</v>
+        <v>0.002163981587357385</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01439731827716498</v>
+        <v>0.01370987093151236</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>12</v>
@@ -3004,19 +3004,19 @@
         <v>7793</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4346</v>
+        <v>4319</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13647</v>
+        <v>12870</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.009295978698286725</v>
+        <v>0.009295978698286727</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005184189680732745</v>
+        <v>0.00515241063836643</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01627886926483169</v>
+        <v>0.01535156946373237</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>19699</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12679</v>
+        <v>13034</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27771</v>
+        <v>28253</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04868835612929949</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03133652804797649</v>
+        <v>0.0322155782395711</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06863750837723688</v>
+        <v>0.06982954860762688</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>38</v>
@@ -3054,19 +3054,19 @@
         <v>20604</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14820</v>
+        <v>14893</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>27594</v>
+        <v>27691</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04750368566061696</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03416865117303006</v>
+        <v>0.03433693943666331</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06361964994391557</v>
+        <v>0.06384441197364225</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>64</v>
@@ -3075,19 +3075,19 @@
         <v>40303</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>32231</v>
+        <v>30231</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>51831</v>
+        <v>49920</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.04807543640613503</v>
+        <v>0.04807543640613504</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03844609231316169</v>
+        <v>0.03606047978386494</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06182586493571017</v>
+        <v>0.05954632089759258</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>84710</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>71718</v>
+        <v>69978</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>98299</v>
+        <v>97523</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2093679113967365</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1772569849654954</v>
+        <v>0.1729574620589322</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2429529864862392</v>
+        <v>0.2410365985805547</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>178</v>
@@ -3125,19 +3125,19 @@
         <v>92549</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>80971</v>
+        <v>79837</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>106137</v>
+        <v>105474</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2133792911284449</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1866848012644366</v>
+        <v>0.1840687617930837</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2447063290216893</v>
+        <v>0.2431779060959972</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>294</v>
@@ -3146,19 +3146,19 @@
         <v>177260</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>160044</v>
+        <v>159363</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>197552</v>
+        <v>195246</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2114433018277991</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1909072361635726</v>
+        <v>0.1900952467669839</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2356494475378997</v>
+        <v>0.2328975955332728</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>294521</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>279194</v>
+        <v>279054</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>310182</v>
+        <v>310163</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7279331198668059</v>
+        <v>0.7279331198668056</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6900519200154018</v>
+        <v>0.6897048820683519</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7666414112646963</v>
+        <v>0.7665932133516117</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>595</v>
@@ -3196,19 +3196,19 @@
         <v>317355</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>303193</v>
+        <v>303469</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>329621</v>
+        <v>330540</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7316851815118643</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6990330227001931</v>
+        <v>0.6996699259365244</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7599641025866507</v>
+        <v>0.7620835354060781</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1012</v>
@@ -3217,19 +3217,19 @@
         <v>611877</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>591486</v>
+        <v>591172</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>631209</v>
+        <v>631830</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7298743454190411</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7055506142040088</v>
+        <v>0.7051759693949479</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7529345828340024</v>
+        <v>0.7536754626206932</v>
       </c>
     </row>
     <row r="39">
@@ -3334,19 +3334,19 @@
         <v>1795</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4862</v>
+        <v>4927</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003902728357482824</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.001171707507023169</v>
+        <v>0.001156753430788666</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01056930180044742</v>
+        <v>0.01070997165910992</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -3355,19 +3355,19 @@
         <v>1795</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5446</v>
+        <v>4995</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002344034479248081</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0007020661664678616</v>
+        <v>0.0007015802748423129</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.00711004096241844</v>
+        <v>0.006521949184702748</v>
       </c>
     </row>
     <row r="41">
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2666</v>
+        <v>3015</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001743182904539649</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.008714823373598864</v>
+        <v>0.009857803372380843</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -3405,19 +3405,19 @@
         <v>2448</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>850</v>
+        <v>942</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5505</v>
+        <v>5642</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00532226949243418</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001847689988741232</v>
+        <v>0.002047408455080494</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01196733130950833</v>
+        <v>0.01226405188538976</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -3426,19 +3426,19 @@
         <v>2982</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1213</v>
+        <v>1163</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6365</v>
+        <v>6690</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.003892833507342605</v>
+        <v>0.003892833507342604</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001583258771851677</v>
+        <v>0.001518260239369849</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.008310800292999597</v>
+        <v>0.008735417951559165</v>
       </c>
     </row>
     <row r="42">
@@ -3455,19 +3455,19 @@
         <v>12467</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7310</v>
+        <v>7148</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19555</v>
+        <v>19586</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.04075524295919657</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02389772042322657</v>
+        <v>0.02336677589465591</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.06393009057542996</v>
+        <v>0.06402935651113127</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>31</v>
@@ -3476,19 +3476,19 @@
         <v>16829</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>12057</v>
+        <v>11592</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>24479</v>
+        <v>23644</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03658367581102027</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02620955970336974</v>
+        <v>0.02519947921765365</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05321380831305619</v>
+        <v>0.05139873815211437</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>47</v>
@@ -3497,19 +3497,19 @@
         <v>29295</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>21768</v>
+        <v>22095</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>39085</v>
+        <v>39467</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03824974005657317</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02842102611215186</v>
+        <v>0.02884871545022833</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05103144140636919</v>
+        <v>0.05153000789846884</v>
       </c>
     </row>
     <row r="43">
@@ -3526,19 +3526,19 @@
         <v>61215</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>50674</v>
+        <v>50603</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>75306</v>
+        <v>74175</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.2001227643482522</v>
+        <v>0.2001227643482521</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1656628036425218</v>
+        <v>0.1654309373255466</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2461888907338192</v>
+        <v>0.2424909536818959</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>174</v>
@@ -3547,19 +3547,19 @@
         <v>89780</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>79334</v>
+        <v>77857</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>104040</v>
+        <v>102551</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1951700269784455</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1724615791830576</v>
+        <v>0.1692517361870065</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2261687506813305</v>
+        <v>0.2229329508570153</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>258</v>
@@ -3568,19 +3568,19 @@
         <v>150995</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>134836</v>
+        <v>134421</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>169700</v>
+        <v>167726</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1971480794360347</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1760495524572339</v>
+        <v>0.1755079097825337</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2215704775902577</v>
+        <v>0.2189933408491001</v>
       </c>
     </row>
     <row r="44">
@@ -3597,19 +3597,19 @@
         <v>231673</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>217742</v>
+        <v>219050</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>243465</v>
+        <v>244077</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.7573788097880119</v>
+        <v>0.7573788097880115</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7118348339003726</v>
+        <v>0.7161122291640731</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7959277984785804</v>
+        <v>0.7979278252654652</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>661</v>
@@ -3618,19 +3618,19 @@
         <v>349157</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>334846</v>
+        <v>335157</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>360543</v>
+        <v>362376</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7590212993606172</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7279118153764413</v>
+        <v>0.7285881064662874</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7837738659107822</v>
+        <v>0.7877593961994588</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1013</v>
@@ -3639,19 +3639,19 @@
         <v>580830</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>561233</v>
+        <v>560984</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>598711</v>
+        <v>597625</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7583653125208013</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7327780408592249</v>
+        <v>0.7324541168955517</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7817115756263296</v>
+        <v>0.7802941506574869</v>
       </c>
     </row>
     <row r="45">
@@ -3743,19 +3743,19 @@
         <v>9781</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4467</v>
+        <v>4563</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>18315</v>
+        <v>18180</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.002796425818306297</v>
+        <v>0.002796425818306296</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0012771118814964</v>
+        <v>0.001304672460616414</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.005236397345309972</v>
+        <v>0.005197970852162368</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>14</v>
@@ -3764,19 +3764,19 @@
         <v>12015</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>6284</v>
+        <v>6660</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>21274</v>
+        <v>22247</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.003236149254795174</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001692424432490802</v>
+        <v>0.001793644640580714</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.005729802776298577</v>
+        <v>0.005991953921830401</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>23</v>
@@ -3785,19 +3785,19 @@
         <v>21796</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>14228</v>
+        <v>13408</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>35416</v>
+        <v>34165</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.003022851372539573</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001973283222637381</v>
+        <v>0.001859459340715899</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.004911795934760416</v>
+        <v>0.004738306754047687</v>
       </c>
     </row>
     <row r="47">
@@ -3814,19 +3814,19 @@
         <v>38805</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>28341</v>
+        <v>28742</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>52698</v>
+        <v>54719</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01109489610331873</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.008103112427918153</v>
+        <v>0.008217649163057911</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01506695123150489</v>
+        <v>0.01564485393150339</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>33</v>
@@ -3835,19 +3835,19 @@
         <v>22776</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>15216</v>
+        <v>16308</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>32608</v>
+        <v>33587</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.00613447104316478</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.004098167884489596</v>
+        <v>0.004392209242766947</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.008782463957054867</v>
+        <v>0.009046009475248347</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>73</v>
@@ -3856,19 +3856,19 @@
         <v>61582</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>48591</v>
+        <v>48576</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>77888</v>
+        <v>81009</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.008540638357936078</v>
+        <v>0.008540638357936082</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006739000220794249</v>
+        <v>0.006736882262105875</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01080203428236546</v>
+        <v>0.01123497658083996</v>
       </c>
     </row>
     <row r="48">
@@ -3885,19 +3885,19 @@
         <v>201650</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>173545</v>
+        <v>171895</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>234808</v>
+        <v>235692</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.05765381727292413</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.04961825634868368</v>
+        <v>0.04914656960712707</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.0671341210535113</v>
+        <v>0.06738678043006616</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>203</v>
@@ -3906,19 +3906,19 @@
         <v>152814</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>132092</v>
+        <v>131341</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>177733</v>
+        <v>181371</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.04115810866377771</v>
+        <v>0.04115810866377772</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.03557678581837975</v>
+        <v>0.03537469072184537</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04786956667918318</v>
+        <v>0.04884937393968353</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>378</v>
@@ -3927,19 +3927,19 @@
         <v>354464</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>319522</v>
+        <v>318066</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>397752</v>
+        <v>398016</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.04915972836531348</v>
+        <v>0.04915972836531349</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.04431367328461238</v>
+        <v>0.04411175157125071</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.0551632683041173</v>
+        <v>0.05519981261963439</v>
       </c>
     </row>
     <row r="49">
@@ -3956,19 +3956,19 @@
         <v>814931</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>761834</v>
+        <v>762484</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>870966</v>
+        <v>866483</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.2329975100795434</v>
+        <v>0.2329975100795433</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2178166715233937</v>
+        <v>0.2180025467419371</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2490185620604919</v>
+        <v>0.2477369000294694</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1163</v>
@@ -3977,19 +3977,19 @@
         <v>766911</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>724804</v>
+        <v>725107</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>813420</v>
+        <v>816009</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2065555132947037</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1952145383198225</v>
+        <v>0.1952962000423661</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2190820848110984</v>
+        <v>0.2197791882316867</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1933</v>
@@ -3998,19 +3998,19 @@
         <v>1581842</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1510234</v>
+        <v>1511330</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1649005</v>
+        <v>1654650</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.219381806934748</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2094507602774608</v>
+        <v>0.2096027474827305</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2286964582137976</v>
+        <v>0.2294794182366638</v>
       </c>
     </row>
     <row r="50">
@@ -4027,19 +4027,19 @@
         <v>2432427</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2366265</v>
+        <v>2374657</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>2491225</v>
+        <v>2491272</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.6954573507259075</v>
+        <v>0.6954573507259074</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.6765406970595357</v>
+        <v>0.678940121546344</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7122682287140388</v>
+        <v>0.7122816895449512</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>3916</v>
@@ -4048,19 +4048,19 @@
         <v>2758340</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2709386</v>
+        <v>2706230</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>2804547</v>
+        <v>2804747</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.7429157577435586</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.7297307498135577</v>
+        <v>0.7288806616701182</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7553609437811235</v>
+        <v>0.7554148476196643</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>6272</v>
@@ -4069,19 +4069,19 @@
         <v>5190767</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5119293</v>
+        <v>5117818</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>5266407</v>
+        <v>5273851</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.7198949749694626</v>
+        <v>0.7198949749694629</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7099824179624972</v>
+        <v>0.7097777905767035</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.7303852735735995</v>
+        <v>0.731417680049927</v>
       </c>
     </row>
     <row r="51">
